--- a/AAII_Financials/Yearly/FTRCQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FTRCQ_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/FTRCQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FTRCQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>FTRCQ</t>
   </si>
@@ -1644,25 +1644,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1779,7 +1779,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>264000</v>
+        <v>256000</v>
       </c>
       <c r="E52" s="3">
         <v>265000</v>

--- a/AAII_Financials/Yearly/FTRCQ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FTRCQ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>FTRCQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,143 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7155000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8107000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8611000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9128000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8896000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5576000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4772500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4761600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2701000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3057000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3339000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3555000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3357000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1927000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1583800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1514600</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4454000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5050000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5272000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5573000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5539000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3649000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3188700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3246900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,63 +870,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6458000</v>
+        <v>889000</v>
       </c>
       <c r="E14" s="3">
-        <v>675000</v>
+        <v>6416000</v>
       </c>
       <c r="F14" s="3">
-        <v>3028000</v>
+        <v>685000</v>
       </c>
       <c r="G14" s="3">
+        <v>3026000</v>
+      </c>
+      <c r="H14" s="3">
         <v>513000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>236000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>141400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>219500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1598000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1780000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1954000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2184000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2031000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1320000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1138900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1169500</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +944,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13099000</v>
+        <v>6836000</v>
       </c>
       <c r="E17" s="3">
-        <v>7783000</v>
+        <v>13057000</v>
       </c>
       <c r="F17" s="3">
-        <v>10784000</v>
+        <v>7793000</v>
       </c>
       <c r="G17" s="3">
+        <v>10782000</v>
+      </c>
+      <c r="H17" s="3">
         <v>7994000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4831000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3952300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3935000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4992000</v>
+        <v>319000</v>
       </c>
       <c r="E18" s="3">
-        <v>828000</v>
+        <v>-4950000</v>
       </c>
       <c r="F18" s="3">
-        <v>-1656000</v>
+        <v>818000</v>
       </c>
       <c r="G18" s="3">
+        <v>-1654000</v>
+      </c>
+      <c r="H18" s="3">
         <v>902000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>745000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>820200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>826500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,143 +1018,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5000</v>
+        <v>-43000</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>-37000</v>
       </c>
       <c r="F20" s="3">
-        <v>1537000</v>
+        <v>13000</v>
       </c>
       <c r="G20" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>38700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1874000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3207000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2785000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2065000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2939000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2072000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1997900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1999600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1535000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1536000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3068000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1531000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1113000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>695500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>667400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-486000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6522000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-705000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3187000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-623000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-361000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>163400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>162700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-611000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-62000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-553000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-250000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-165000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>47200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-402000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5911000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-643000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2634000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-373000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-196000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>132900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>115500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-402000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5911000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-750000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2850000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-590000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-319000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>129900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>110300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1240,11 +1300,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>830000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1375,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5000</v>
+        <v>43000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>37000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1537000</v>
+        <v>-13000</v>
       </c>
       <c r="G32" s="3">
+        <v>-1535000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-38700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-402000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5911000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-750000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2020000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-590000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-319000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>129900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>110300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-402000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5911000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-750000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2020000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-590000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-319000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>129900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>110300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,35 +1561,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1829000</v>
+      </c>
+      <c r="E41" s="3">
         <v>760000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>354000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>362000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>522000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>936000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>682000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>880000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,36 +1618,42 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E43" s="3">
         <v>682000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>783000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>883000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1046000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>651000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>672000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>670200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,71 +1678,80 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1595000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>193000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>78000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>88000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8544000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>80000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2654000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3037000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1330000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1323000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1656000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10131000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1415000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1618800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1664,63 +1768,72 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13146000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13167000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14187000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14377000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14902000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8493000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8566000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7255800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>677000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1020000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7877000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9087000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12336000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8309000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8705000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7552700</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1888,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E52" s="3">
         <v>256000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>265000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>97000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>119000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>151000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>124000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>210200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1948,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16795000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17488000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23659000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24884000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29013000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27084000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18810000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16635500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,170 +2009,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E57" s="3">
         <v>437000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>495000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>564000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>698000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>467000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>379000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>327300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5802000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1019000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>844000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>697000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>402000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>387000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>298000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>257900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>798000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1348000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1222000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1247000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1344000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1039000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>835000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>716400</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7140000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2804000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2561000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2508000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2444000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1893000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1512000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1301600</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16450000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16427000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17048000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17668000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15535000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9393000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7873700</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14431000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2628000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3071000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3054000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4382000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4042000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4247000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3404700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2276,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21695000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21882000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22059000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22610000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24494000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21470000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15152000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12580000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2440,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8975000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8573000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2752000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2263000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-460000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-87000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>109000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>76100</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2560,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4900000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4394000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2274000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4519000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5614000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3658000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4055500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-402000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5911000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-750000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2020000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-590000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-319000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>129900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>110300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2702,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1598000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1780000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1954000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2184000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2031000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1320000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1139000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1169500</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2879,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1989000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1508000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1812000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1850000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1676000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1315000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1270000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1495600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2926,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1181000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1226000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1192000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1188000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1401000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-863000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-688000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-634700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3013,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1134000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1176000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1054000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11259000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-878000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2687000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-542500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2837,26 +3070,29 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-107000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-480000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-707000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-576000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-401000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-399800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,36 +3177,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-893000</v>
+      </c>
+      <c r="E100" s="3">
         <v>32000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-608000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-942000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>725000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8261000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1208000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1399600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2989,34 +3237,40 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1077000</v>
+      </c>
+      <c r="E102" s="3">
         <v>406000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-146000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8858000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8698000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-209000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-446500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
